--- a/openocean.xlsx
+++ b/openocean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\batchOne\openocean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB6B5E-C278-4E0F-8C85-7A6CE7E1D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAF78E0-06E8-45AC-9F94-73988463AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A9B3861-B0F8-444B-A2EC-AE378BC1F08C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t xml:space="preserve">Protocol </t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>0x44Cdb4a71A806c30dfF34a8bDFD59551021e4947(OOE-ETH pool)</t>
+  </si>
+  <si>
+    <t>entry point-deposit(amount)</t>
+  </si>
+  <si>
+    <t>Test addresses</t>
+  </si>
+  <si>
+    <t>0xbfd8686b331e2c78a4958460867324bfe2ac36b0</t>
+  </si>
+  <si>
+    <t>0x704c30cb5965458aa25c66412eada07322fdfbf9</t>
+  </si>
+  <si>
+    <t>0x2ee8e197c771ef304e626efe5bfe9568dc86322a</t>
+  </si>
+  <si>
+    <t>0xdd891ba224a4a63094b4599abb2f007fb2e41ee5</t>
+  </si>
+  <si>
+    <t>0x01dfd4954d81ff43a2fbbd1fbfa8150c4bf373ba</t>
+  </si>
+  <si>
+    <t>0x0c0b1eb2e186f528fc7eade2ec0896ebd69033b2</t>
+  </si>
+  <si>
+    <t>0x2bab5247d173131f8243ae348464b093e50d0726</t>
+  </si>
+  <si>
+    <t>0xd6ed53080937517e30704716faf04dc09f3d7889</t>
+  </si>
+  <si>
+    <t>0xf1cea098e47c737c3b4a3df3c44408ab2b34c48b</t>
+  </si>
+  <si>
+    <t>0x919e0f94351749e38d3990180a40a451813dacb4</t>
   </si>
 </sst>
 </file>
@@ -137,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,12 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,22 +520,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47127C-AFC1-4FB1-8453-E8173ECF4D9F}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="58.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +552,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,8 +572,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>10</v>
@@ -537,15 +587,32 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -558,8 +625,11 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -569,8 +639,11 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -580,8 +653,11 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -591,8 +667,11 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -602,63 +681,76 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
